--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H2">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I2">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J2">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>2433.997447135343</v>
+        <v>2587.227211782851</v>
       </c>
       <c r="R2">
-        <v>2433.997447135343</v>
+        <v>10348.9088471314</v>
       </c>
       <c r="S2">
-        <v>0.1127826430269088</v>
+        <v>0.111414435588582</v>
       </c>
       <c r="T2">
-        <v>0.1127826430269088</v>
+        <v>0.07347547130863089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H3">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I3">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J3">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>3381.3557865815</v>
+        <v>3814.399669094129</v>
       </c>
       <c r="R3">
-        <v>3381.3557865815</v>
+        <v>22886.39801456478</v>
       </c>
       <c r="S3">
-        <v>0.1566798038649661</v>
+        <v>0.1642604809913639</v>
       </c>
       <c r="T3">
-        <v>0.1566798038649661</v>
+        <v>0.1624894861397081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H4">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I4">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J4">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>1645.30979905351</v>
+        <v>1803.740672293223</v>
       </c>
       <c r="R4">
-        <v>1645.30979905351</v>
+        <v>10822.44403375934</v>
       </c>
       <c r="S4">
-        <v>0.07623770844695089</v>
+        <v>0.07767495179259344</v>
       </c>
       <c r="T4">
-        <v>0.07623770844695089</v>
+        <v>0.07683748961729076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H5">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I5">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J5">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>1260.484579090691</v>
+        <v>1327.430246170965</v>
       </c>
       <c r="R5">
-        <v>1260.484579090691</v>
+        <v>7964.581477025788</v>
       </c>
       <c r="S5">
-        <v>0.05840629886108666</v>
+        <v>0.05716347253414845</v>
       </c>
       <c r="T5">
-        <v>0.05840629886108666</v>
+        <v>0.05654715742932379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H6">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I6">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J6">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>1278.382138876413</v>
+        <v>1398.157208331068</v>
       </c>
       <c r="R6">
-        <v>1278.382138876413</v>
+        <v>8388.943249986407</v>
       </c>
       <c r="S6">
-        <v>0.0592356070835507</v>
+        <v>0.06020920602600238</v>
       </c>
       <c r="T6">
-        <v>0.0592356070835507</v>
+        <v>0.05956005296587018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H7">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I7">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J7">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>573.4309745302531</v>
+        <v>606.3882033217817</v>
       </c>
       <c r="R7">
-        <v>573.4309745302531</v>
+        <v>2425.552813287127</v>
       </c>
       <c r="S7">
-        <v>0.02657071846033938</v>
+        <v>0.02611305227193978</v>
       </c>
       <c r="T7">
-        <v>0.02657071846033938</v>
+        <v>0.01722100742916944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H8">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I8">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J8">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>255.6320678148813</v>
+        <v>272.902393906868</v>
       </c>
       <c r="R8">
-        <v>255.6320678148813</v>
+        <v>1637.414363441208</v>
       </c>
       <c r="S8">
-        <v>0.01184506593650225</v>
+        <v>0.01175206647851944</v>
       </c>
       <c r="T8">
-        <v>0.01184506593650225</v>
+        <v>0.01162536010883051</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H9">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I9">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J9">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>355.1289557673801</v>
+        <v>402.3453356831506</v>
       </c>
       <c r="R9">
-        <v>355.1289557673801</v>
+        <v>3621.108021148356</v>
       </c>
       <c r="S9">
-        <v>0.01645539205226791</v>
+        <v>0.01732630140974227</v>
       </c>
       <c r="T9">
-        <v>0.01645539205226791</v>
+        <v>0.02570924359693134</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H10">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I10">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J10">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>172.799666089686</v>
+        <v>190.2597287220087</v>
       </c>
       <c r="R10">
-        <v>172.799666089686</v>
+        <v>1712.337558498078</v>
       </c>
       <c r="S10">
-        <v>0.008006911871949232</v>
+        <v>0.008193203980794581</v>
       </c>
       <c r="T10">
-        <v>0.008006911871949232</v>
+        <v>0.01215730189613091</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H11">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I11">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J11">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>132.383162431397</v>
+        <v>140.0181979667753</v>
       </c>
       <c r="R11">
-        <v>132.383162431397</v>
+        <v>1260.163781700978</v>
       </c>
       <c r="S11">
-        <v>0.006134157194308394</v>
+        <v>0.00602963992785491</v>
       </c>
       <c r="T11">
-        <v>0.006134157194308394</v>
+        <v>0.008946945920024329</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H12">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I12">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J12">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>134.2628645741618</v>
+        <v>147.4785235227793</v>
       </c>
       <c r="R12">
-        <v>134.2628645741618</v>
+        <v>1327.306711705014</v>
       </c>
       <c r="S12">
-        <v>0.006221255796656508</v>
+        <v>0.006350905859715797</v>
       </c>
       <c r="T12">
-        <v>0.006221255796656508</v>
+        <v>0.00942364916477814</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H13">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I13">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J13">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N13">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O13">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P13">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q13">
-        <v>60.22493817353627</v>
+        <v>63.962218536409</v>
       </c>
       <c r="R13">
-        <v>60.22493817353627</v>
+        <v>383.773311218454</v>
       </c>
       <c r="S13">
-        <v>0.002790605927437485</v>
+        <v>0.002754421584920182</v>
       </c>
       <c r="T13">
-        <v>0.002790605927437485</v>
+        <v>0.002724724445250662</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H14">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I14">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J14">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N14">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O14">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P14">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q14">
-        <v>877.0785200522297</v>
+        <v>10.66065197114867</v>
       </c>
       <c r="R14">
-        <v>877.0785200522297</v>
+        <v>63.963911826892</v>
       </c>
       <c r="S14">
-        <v>0.040640648062323</v>
+        <v>0.0004590824172544772</v>
       </c>
       <c r="T14">
-        <v>0.040640648062323</v>
+        <v>0.0004541327629460494</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H15">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I15">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J15">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N15">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P15">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q15">
-        <v>1218.454247992494</v>
+        <v>15.71720765995489</v>
       </c>
       <c r="R15">
-        <v>1218.454247992494</v>
+        <v>141.454868939594</v>
       </c>
       <c r="S15">
-        <v>0.0564587652537159</v>
+        <v>0.0006768341846774704</v>
       </c>
       <c r="T15">
-        <v>0.0564587652537159</v>
+        <v>0.001004305218817173</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H16">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I16">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J16">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N16">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O16">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P16">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q16">
-        <v>592.8789634844024</v>
+        <v>7.432301061905222</v>
       </c>
       <c r="R16">
-        <v>592.8789634844024</v>
+        <v>66.89070955714699</v>
       </c>
       <c r="S16">
-        <v>0.02747186796581177</v>
+        <v>0.0003200591058123462</v>
       </c>
       <c r="T16">
-        <v>0.02747186796581177</v>
+        <v>0.0004749125229992192</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H17">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I17">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J17">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N17">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O17">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P17">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q17">
-        <v>454.2091654527717</v>
+        <v>5.469667219777444</v>
       </c>
       <c r="R17">
-        <v>454.2091654527717</v>
+        <v>49.227004977997</v>
       </c>
       <c r="S17">
-        <v>0.02104641080338883</v>
+        <v>0.0002355416962891854</v>
       </c>
       <c r="T17">
-        <v>0.02104641080338883</v>
+        <v>0.0003495032611938825</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H18">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I18">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J18">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N18">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O18">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P18">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q18">
-        <v>460.6584595010799</v>
+        <v>5.761097181990111</v>
       </c>
       <c r="R18">
-        <v>460.6584595010799</v>
+        <v>51.84987463791101</v>
       </c>
       <c r="S18">
-        <v>0.02134524777599206</v>
+        <v>0.00024809162024084</v>
       </c>
       <c r="T18">
-        <v>0.02134524777599206</v>
+        <v>0.0003681251842671259</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H19">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I19">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J19">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N19">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O19">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P19">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q19">
-        <v>206.6329161869232</v>
+        <v>2.498618430411833</v>
       </c>
       <c r="R19">
-        <v>206.6329161869232</v>
+        <v>14.991710582471</v>
       </c>
       <c r="S19">
-        <v>0.009574622377417418</v>
+        <v>0.0001075986526841338</v>
       </c>
       <c r="T19">
-        <v>0.009574622377417418</v>
+        <v>0.0001064385643975379</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H20">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I20">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J20">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N20">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O20">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P20">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q20">
-        <v>1401.518040684304</v>
+        <v>3.475925689705333</v>
       </c>
       <c r="R20">
-        <v>1401.518040684304</v>
+        <v>20.855554138232</v>
       </c>
       <c r="S20">
-        <v>0.06494127964854891</v>
+        <v>0.0001496846883422762</v>
       </c>
       <c r="T20">
-        <v>0.06494127964854891</v>
+        <v>0.0001480708442160082</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H21">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I21">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J21">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N21">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P21">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q21">
-        <v>1947.015656258706</v>
+        <v>5.124625212747111</v>
       </c>
       <c r="R21">
-        <v>1947.015656258706</v>
+        <v>46.121626914724</v>
       </c>
       <c r="S21">
-        <v>0.09021766723135678</v>
+        <v>0.0002206830629644589</v>
       </c>
       <c r="T21">
-        <v>0.09021766723135678</v>
+        <v>0.000327455611517877</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H22">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I22">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J22">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N22">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O22">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P22">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q22">
-        <v>947.3844636123557</v>
+        <v>2.423315784495778</v>
       </c>
       <c r="R22">
-        <v>947.3844636123557</v>
+        <v>21.809842060462</v>
       </c>
       <c r="S22">
-        <v>0.04389837133748253</v>
+        <v>0.0001043558753374613</v>
       </c>
       <c r="T22">
-        <v>0.04389837133748253</v>
+        <v>0.0001548461241885842</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H23">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I23">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J23">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N23">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O23">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P23">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q23">
-        <v>725.7985745544345</v>
+        <v>1.783395317173555</v>
       </c>
       <c r="R23">
-        <v>725.7985745544345</v>
+        <v>16.050557854562</v>
       </c>
       <c r="S23">
-        <v>0.03363088225082281</v>
+        <v>7.679881449503269E-05</v>
       </c>
       <c r="T23">
-        <v>0.03363088225082281</v>
+        <v>0.0001139561977548275</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H24">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I24">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J24">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N24">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O24">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P24">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q24">
-        <v>736.1041535325213</v>
+        <v>1.878416606222889</v>
       </c>
       <c r="R24">
-        <v>736.1041535325213</v>
+        <v>16.905749456006</v>
       </c>
       <c r="S24">
-        <v>0.03410840552696229</v>
+        <v>8.089074087865933E-05</v>
       </c>
       <c r="T24">
-        <v>0.03410840552696229</v>
+        <v>0.0001200279109086928</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07323266666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.219698</v>
+      </c>
+      <c r="I25">
+        <v>0.0006674959257426293</v>
+      </c>
+      <c r="J25">
+        <v>0.0008990611833360319</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>11.1245335</v>
+      </c>
+      <c r="N25">
+        <v>22.249067</v>
+      </c>
+      <c r="O25">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P25">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q25">
+        <v>0.8146792536276667</v>
+      </c>
+      <c r="R25">
+        <v>4.888075521766</v>
+      </c>
+      <c r="S25">
+        <v>3.50827437247409E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.470449475004235E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H26">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I26">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J26">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>47.464142</v>
+      </c>
+      <c r="N26">
+        <v>94.928284</v>
+      </c>
+      <c r="O26">
+        <v>0.2242480928640021</v>
+      </c>
+      <c r="P26">
+        <v>0.1646949584305048</v>
+      </c>
+      <c r="Q26">
+        <v>896.6565612016029</v>
+      </c>
+      <c r="R26">
+        <v>5379.939367209617</v>
+      </c>
+      <c r="S26">
+        <v>0.03861295375531949</v>
+      </c>
+      <c r="T26">
+        <v>0.03819664338111885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H27">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I27">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J27">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N27">
+        <v>209.931938</v>
+      </c>
+      <c r="O27">
+        <v>0.3306133482671609</v>
+      </c>
+      <c r="P27">
+        <v>0.3642194965005931</v>
+      </c>
+      <c r="Q27">
+        <v>1321.958301444124</v>
+      </c>
+      <c r="R27">
+        <v>11897.62471299711</v>
+      </c>
+      <c r="S27">
+        <v>0.05692783276098264</v>
+      </c>
+      <c r="T27">
+        <v>0.08447108735361898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H28">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I28">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J28">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>33.09063966666667</v>
+      </c>
+      <c r="N28">
+        <v>99.271919</v>
+      </c>
+      <c r="O28">
+        <v>0.1563393442759357</v>
+      </c>
+      <c r="P28">
+        <v>0.172230908261456</v>
+      </c>
+      <c r="Q28">
+        <v>625.1232598173731</v>
+      </c>
+      <c r="R28">
+        <v>5626.109338356357</v>
+      </c>
+      <c r="S28">
+        <v>0.02691984486273745</v>
+      </c>
+      <c r="T28">
+        <v>0.03994440779949542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H29">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I29">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J29">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>24.35245633333333</v>
+      </c>
+      <c r="N29">
+        <v>73.05736899999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1150551060062118</v>
+      </c>
+      <c r="P29">
+        <v>0.126750214409196</v>
+      </c>
+      <c r="Q29">
+        <v>460.0481296524619</v>
+      </c>
+      <c r="R29">
+        <v>4140.433166872156</v>
+      </c>
+      <c r="S29">
+        <v>0.01981117177315534</v>
+      </c>
+      <c r="T29">
+        <v>0.02939636273268994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H30">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I30">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J30">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>25.64998233333334</v>
+      </c>
+      <c r="N30">
+        <v>76.94994700000001</v>
+      </c>
+      <c r="O30">
+        <v>0.121185370215801</v>
+      </c>
+      <c r="P30">
+        <v>0.1335036070218497</v>
+      </c>
+      <c r="Q30">
+        <v>484.5600064547366</v>
+      </c>
+      <c r="R30">
+        <v>4361.040058092629</v>
+      </c>
+      <c r="S30">
+        <v>0.02086673307318527</v>
+      </c>
+      <c r="T30">
+        <v>0.03096263368412933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H31">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I31">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J31">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11.1245335</v>
+      </c>
+      <c r="N31">
+        <v>22.249067</v>
+      </c>
+      <c r="O31">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P31">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q31">
+        <v>210.1562470692514</v>
+      </c>
+      <c r="R31">
+        <v>1260.937482415508</v>
+      </c>
+      <c r="S31">
+        <v>0.009050012904162524</v>
+      </c>
+      <c r="T31">
+        <v>0.0089524390619093</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30.264707</v>
+      </c>
+      <c r="H32">
+        <v>60.529414</v>
+      </c>
+      <c r="I32">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J32">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>47.464142</v>
+      </c>
+      <c r="N32">
+        <v>94.928284</v>
+      </c>
+      <c r="O32">
+        <v>0.2242480928640021</v>
+      </c>
+      <c r="P32">
+        <v>0.1646949584305048</v>
+      </c>
+      <c r="Q32">
+        <v>1436.488350636394</v>
+      </c>
+      <c r="R32">
+        <v>5745.953402545577</v>
+      </c>
+      <c r="S32">
+        <v>0.06185986993598448</v>
+      </c>
+      <c r="T32">
+        <v>0.04079528002476249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>30.264707</v>
+      </c>
+      <c r="H33">
+        <v>60.529414</v>
+      </c>
+      <c r="I33">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J33">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N33">
+        <v>209.931938</v>
+      </c>
+      <c r="O33">
+        <v>0.3306133482671609</v>
+      </c>
+      <c r="P33">
+        <v>0.3642194965005931</v>
+      </c>
+      <c r="Q33">
+        <v>2117.842864504055</v>
+      </c>
+      <c r="R33">
+        <v>12707.05718702433</v>
+      </c>
+      <c r="S33">
+        <v>0.0912012158574302</v>
+      </c>
+      <c r="T33">
+        <v>0.09021791857999957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.264707</v>
+      </c>
+      <c r="H34">
+        <v>60.529414</v>
+      </c>
+      <c r="I34">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J34">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>33.09063966666667</v>
+      </c>
+      <c r="N34">
+        <v>99.271919</v>
+      </c>
+      <c r="O34">
+        <v>0.1563393442759357</v>
+      </c>
+      <c r="P34">
+        <v>0.172230908261456</v>
+      </c>
+      <c r="Q34">
+        <v>1001.478513954244</v>
+      </c>
+      <c r="R34">
+        <v>6008.871083725466</v>
+      </c>
+      <c r="S34">
+        <v>0.04312692865866044</v>
+      </c>
+      <c r="T34">
+        <v>0.04266195030135106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>29.8214531279293</v>
-      </c>
-      <c r="H25">
-        <v>29.8214531279293</v>
-      </c>
-      <c r="I25">
-        <v>0.2820962692384267</v>
-      </c>
-      <c r="J25">
-        <v>0.2820962692384267</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="N25">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="O25">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="P25">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="Q25">
-        <v>330.1868113449351</v>
-      </c>
-      <c r="R25">
-        <v>330.1868113449351</v>
-      </c>
-      <c r="S25">
-        <v>0.01529966324325335</v>
-      </c>
-      <c r="T25">
-        <v>0.01529966324325335</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>30.264707</v>
+      </c>
+      <c r="H35">
+        <v>60.529414</v>
+      </c>
+      <c r="I35">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J35">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>24.35245633333333</v>
+      </c>
+      <c r="N35">
+        <v>73.05736899999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1150551060062118</v>
+      </c>
+      <c r="P35">
+        <v>0.126750214409196</v>
+      </c>
+      <c r="Q35">
+        <v>737.0199556586276</v>
+      </c>
+      <c r="R35">
+        <v>4422.119733951766</v>
+      </c>
+      <c r="S35">
+        <v>0.03173848126026888</v>
+      </c>
+      <c r="T35">
+        <v>0.0313962888682092</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>30.264707</v>
+      </c>
+      <c r="H36">
+        <v>60.529414</v>
+      </c>
+      <c r="I36">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J36">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>25.64998233333334</v>
+      </c>
+      <c r="N36">
+        <v>76.94994700000001</v>
+      </c>
+      <c r="O36">
+        <v>0.121185370215801</v>
+      </c>
+      <c r="P36">
+        <v>0.1335036070218497</v>
+      </c>
+      <c r="Q36">
+        <v>776.2891998735098</v>
+      </c>
+      <c r="R36">
+        <v>4657.735199241059</v>
+      </c>
+      <c r="S36">
+        <v>0.03342954289577803</v>
+      </c>
+      <c r="T36">
+        <v>0.03306911811189626</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30.264707</v>
+      </c>
+      <c r="H37">
+        <v>60.529414</v>
+      </c>
+      <c r="I37">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J37">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.1245335</v>
+      </c>
+      <c r="N37">
+        <v>22.249067</v>
+      </c>
+      <c r="O37">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P37">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q37">
+        <v>336.6807468891845</v>
+      </c>
+      <c r="R37">
+        <v>1346.722987556738</v>
+      </c>
+      <c r="S37">
+        <v>0.01449857021345718</v>
+      </c>
+      <c r="T37">
+        <v>0.009561501380923543</v>
       </c>
     </row>
   </sheetData>
